--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3953853.964141638</v>
+        <v>3951973.78437131</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.35833737073</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>83.85112090809152</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>168.8841199149501</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>139.1329950741216</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>13.80890171427166</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>54.32902562741683</v>
+        <v>219.1570781143516</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.6993815150876</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>36.31437750815309</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151912</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002169</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,7 +1822,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>59.77945773664969</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F19" t="n">
-        <v>70.41761368552008</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>210.5069097326779</v>
@@ -2062,13 +2062,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>149.3819392193787</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1967010728659</v>
+        <v>39.14661165392167</v>
       </c>
       <c r="V22" t="n">
         <v>241.0969919981166</v>
@@ -2302,10 +2302,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.41761368552103</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>60.45615236551228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4823470108796</v>
+        <v>179.2356473439435</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
-        <v>137.5748216925009</v>
+        <v>93.73299755169666</v>
       </c>
       <c r="E28" t="n">
-        <v>44.42600064761642</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808136</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.43225759193609</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808136</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U31" t="n">
-        <v>275.1967010728659</v>
+        <v>126.7476430361205</v>
       </c>
       <c r="V31" t="n">
         <v>241.0969919981166</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>207.5440020263834</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583422</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>159.5099885583422</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>159.5099885583422</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E2" t="n">
-        <v>159.5099885583422</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>152.5644878091387</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>138.6410837477296</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>138.6410837477296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4407,13 +4407,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>601.1385180919704</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C5" t="n">
-        <v>601.1385180919704</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D5" t="n">
-        <v>601.1385180919704</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E5" t="n">
-        <v>215.3502654937261</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F5" t="n">
-        <v>208.4047647445227</v>
+        <v>551.7277219004728</v>
       </c>
       <c r="G5" t="n">
-        <v>194.4813606831136</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>194.4813606831136</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.743608328862</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>991.2778500677821</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>601.1385180919704</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4744,25 +4744,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2368.607930856721</v>
+        <v>2025.937460860856</v>
       </c>
       <c r="V8" t="n">
-        <v>2368.607930856721</v>
+        <v>1694.874573517285</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5027,22 +5027,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5054,37 +5054,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.777852827703</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365149</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471188</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028581</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,22 +5264,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555228</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619866</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.623401105981</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5437,46 +5437,46 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013837</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3459941729324</v>
+        <v>391.7620218580376</v>
       </c>
       <c r="C19" t="n">
-        <v>168.3459941729324</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="D19" t="n">
-        <v>168.3459941729324</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="E19" t="n">
-        <v>168.3459941729324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5300287366499</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937155</v>
+        <v>281.645677793716</v>
       </c>
       <c r="L19" t="n">
-        <v>540.287967617299</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5689,34 +5689,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875142</v>
+        <v>1273.802056521416</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449749</v>
+        <v>995.8255907912486</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953622</v>
+        <v>752.2932756416359</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146757</v>
+        <v>601.4024279452935</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729324</v>
+        <v>601.4024279452935</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3459941729324</v>
+        <v>391.7620218580376</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5914,43 +5914,43 @@
         <v>281.6456777937158</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172996</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969368</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q22" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449757</v>
+        <v>1045.492187519584</v>
       </c>
       <c r="V22" t="n">
-        <v>663.448368995363</v>
+        <v>801.9598723699714</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146766</v>
+        <v>523.694875389285</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729334</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>569.7470733553271</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="C25" t="n">
-        <v>508.6802527841025</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="D25" t="n">
-        <v>369.7157864280409</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="E25" t="n">
-        <v>232.954865901922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6148,49 +6148,49 @@
         <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.645677793716</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969368</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N25" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q25" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1586.358229057537</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1586.358229057537</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U25" t="n">
-        <v>1308.38176332737</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="V25" t="n">
-        <v>1064.849448177757</v>
+        <v>841.5019043436298</v>
       </c>
       <c r="W25" t="n">
-        <v>786.5844511970704</v>
+        <v>660.455795915404</v>
       </c>
       <c r="X25" t="n">
-        <v>569.7470733553271</v>
+        <v>443.6184180736608</v>
       </c>
       <c r="Y25" t="n">
-        <v>569.7470733553271</v>
+        <v>233.9780119864048</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>281.0563059452529</v>
+        <v>349.6808968386829</v>
       </c>
       <c r="C28" t="n">
-        <v>281.0563059452529</v>
+        <v>191.8968869670501</v>
       </c>
       <c r="D28" t="n">
-        <v>142.0918395891913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6385,49 +6385,49 @@
         <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172994</v>
+        <v>540.287967617299</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q28" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R28" t="n">
-        <v>1486.435298675637</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1297.667461647463</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T28" t="n">
-        <v>1297.667461647463</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="U28" t="n">
         <v>1019.690995917295</v>
       </c>
       <c r="V28" t="n">
-        <v>776.1586807676825</v>
+        <v>776.1586807676821</v>
       </c>
       <c r="W28" t="n">
-        <v>497.8936837869961</v>
+        <v>776.1586807676821</v>
       </c>
       <c r="X28" t="n">
-        <v>281.0563059452529</v>
+        <v>559.3213029259389</v>
       </c>
       <c r="Y28" t="n">
-        <v>281.0563059452529</v>
+        <v>349.6808968386829</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,31 +6449,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
         <v>281.6456777937157</v>
@@ -6637,34 +6637,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R31" t="n">
         <v>1486.435298675636</v>
       </c>
       <c r="S31" t="n">
-        <v>1297.667461647463</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T31" t="n">
-        <v>1085.034219493243</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U31" t="n">
-        <v>807.0577537630757</v>
+        <v>957.0062972345347</v>
       </c>
       <c r="V31" t="n">
-        <v>563.5254386134628</v>
+        <v>713.473982084922</v>
       </c>
       <c r="W31" t="n">
-        <v>563.5254386134628</v>
+        <v>713.473982084922</v>
       </c>
       <c r="X31" t="n">
-        <v>346.6880607717197</v>
+        <v>713.473982084922</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.0476546844637</v>
+        <v>503.833575997666</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6923,31 +6923,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108317</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506715</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083194</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,28 +7117,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859415</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045193</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010303</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7409,19 +7409,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7494,22 +7494,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7612,7 +7612,7 @@
         <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7840,7 +7840,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498465</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.3657496970649</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445223</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928339</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503182</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>18.73797368291355</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>148.1350559470645</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>169.2863157167187</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>185.2331835502362</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338615</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338635</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154451</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729165</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>137.574821692501</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>63.9627830116998</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418248</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856063</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808142</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>126.1004077915009</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24130,13 @@
         <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
         <v>155.4529171376662</v>
@@ -24145,7 +24145,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>236.0500894189443</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.1263883408623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>95.75001740740413</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>96.24669966693608</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>43.8418241408043</v>
       </c>
       <c r="E28" t="n">
-        <v>90.96731067324133</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F28" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
@@ -24619,7 +24619,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856054</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129.3590712642898</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F31" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>155.4529171376662</v>
@@ -24856,7 +24856,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856056</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>148.4490580367454</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.3094766292</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652087.0943110489</v>
+        <v>652087.0943110487</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652087.0943110489</v>
+        <v>652087.0943110487</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652087.094311049</v>
+        <v>652087.0943110487</v>
       </c>
     </row>
     <row r="12">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="G2" t="n">
-        <v>748956.582992519</v>
+        <v>748956.5829925193</v>
       </c>
       <c r="H2" t="n">
-        <v>748956.5829925193</v>
+        <v>748956.5829925191</v>
       </c>
       <c r="I2" t="n">
         <v>748956.5829925195</v>
       </c>
       <c r="J2" t="n">
-        <v>748956.5829925193</v>
+        <v>748956.5829925191</v>
       </c>
       <c r="K2" t="n">
-        <v>748956.5829925193</v>
+        <v>748956.5829925194</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="M2" t="n">
         <v>779989.6813710695</v>
@@ -26350,10 +26350,10 @@
         <v>779989.6813710694</v>
       </c>
       <c r="O2" t="n">
+        <v>779989.6813710697</v>
+      </c>
+      <c r="P2" t="n">
         <v>779989.6813710694</v>
-      </c>
-      <c r="P2" t="n">
-        <v>779989.6813710692</v>
       </c>
     </row>
     <row r="3">
@@ -26372,34 +26372,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569365</v>
+        <v>8832.521060569115</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371248</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.6075868708</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>25807.53208971</v>
+        <v>25807.53208971002</v>
       </c>
       <c r="H4" t="n">
-        <v>25807.53208971002</v>
+        <v>25807.53208971001</v>
       </c>
       <c r="I4" t="n">
-        <v>25807.53208971002</v>
+        <v>25807.53208971001</v>
       </c>
       <c r="J4" t="n">
-        <v>25807.53208971002</v>
+        <v>25807.53208971001</v>
       </c>
       <c r="K4" t="n">
         <v>25807.53208971002</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819114</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>92915.50246501785</v>
@@ -26491,16 +26491,16 @@
         <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58470.14369340934</v>
+        <v>-58470.14369340919</v>
       </c>
       <c r="C6" t="n">
         <v>531497.735521135</v>
@@ -26528,28 +26528,28 @@
         <v>531497.735521135</v>
       </c>
       <c r="E6" t="n">
-        <v>103633.2434891639</v>
+        <v>103535.7843631913</v>
       </c>
       <c r="F6" t="n">
-        <v>628793.2799660597</v>
+        <v>628695.820840088</v>
       </c>
       <c r="G6" t="n">
-        <v>621401.0273772218</v>
+        <v>621319.3613288577</v>
       </c>
       <c r="H6" t="n">
-        <v>630233.5484377914</v>
+        <v>630151.8823894267</v>
       </c>
       <c r="I6" t="n">
-        <v>630233.5484377916</v>
+        <v>630151.882389427</v>
       </c>
       <c r="J6" t="n">
-        <v>453810.3292451985</v>
+        <v>453728.6631968338</v>
       </c>
       <c r="K6" t="n">
-        <v>630233.5484377914</v>
+        <v>630151.8823894269</v>
       </c>
       <c r="L6" t="n">
-        <v>583175.6686191404</v>
+        <v>583175.6686191402</v>
       </c>
       <c r="M6" t="n">
         <v>502880.1654890158</v>
@@ -26558,10 +26558,10 @@
         <v>637681.1807228528</v>
       </c>
       <c r="O6" t="n">
+        <v>637681.1807228531</v>
+      </c>
+      <c r="P6" t="n">
         <v>637681.1807228528</v>
-      </c>
-      <c r="P6" t="n">
-        <v>637681.1807228526</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964061</v>
-      </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990175</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990173</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>248.5720327015318</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.08019533676973</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>244.9000501058449</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12.79832117073963</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>272.4729725277061</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>196.8951418808725</v>
+        <v>32.06708939393769</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>1.885271837007167</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571139</v>
       </c>
     </row>
     <row r="20">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30457,22 +30457,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104645</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361486</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,43 +32151,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.9101789549066</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058706</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980126</v>
+        <v>607.5603230950777</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178375</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714616</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507399</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349799</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953154</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382573</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560241</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411079</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714616</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209231</v>
+        <v>212.353110871397</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>383.956422297167</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127688</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K19" t="n">
         <v>162.7430798556219</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375121</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758612</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>106.7510064679877</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K22" t="n">
         <v>162.743079855622</v>
@@ -36285,7 +36285,7 @@
         <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
         <v>284.317529131315</v>
@@ -36297,7 +36297,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109123</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
@@ -36522,7 +36522,7 @@
         <v>261.2548382056399</v>
       </c>
       <c r="M25" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
         <v>284.317529131315</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127696</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K28" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L28" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M28" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N28" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>670.927063341192</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K31" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L31" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M31" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N31" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>355.2284708785892</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>418.5440206727429</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
